--- a/admin/public/assets/samples/menu-items-import-template.xlsx
+++ b/admin/public/assets/samples/menu-items-import-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7218AEA1-372F-4005-B33C-0597047A5B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9721EFB-52A1-40D0-B989-16D5D400C6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -23,9 +23,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -72,6 +69,15 @@
   </si>
   <si>
     <t>Side Dishes</t>
+  </si>
+  <si>
+    <t>Base Price</t>
+  </si>
+  <si>
+    <t>Size Variants</t>
+  </si>
+  <si>
+    <t>Quarter: ₹120.00, Medium: ₹250.00, Full: ₹500.00</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,11 +476,12 @@
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="7" width="12" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -482,88 +489,94 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1">
-        <v>200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>250</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
